--- a/boot/src/main/resources/xlsx/tarifarios/escenarioTarifa.xlsx
+++ b/boot/src/main/resources/xlsx/tarifarios/escenarioTarifa.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3657B825-6B72-46EF-8E5E-5F6C43F16F3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14865" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14865" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I16"/>
 </workbook>
 </file>
 
@@ -59,9 +57,6 @@
     <t>REPORTE DE ESCENARIO TARIFA</t>
   </si>
   <si>
-    <t>Código Escenario tarifa</t>
-  </si>
-  <si>
     <t>Membresía</t>
   </si>
   <si>
@@ -98,16 +93,19 @@
     <t>${item.idCodigoTransaccion} - ${item.descripcionCodigoTransaccion}</t>
   </si>
   <si>
-    <t>${item.idTarifa} - ${item.descripcionTarifa}</t>
-  </si>
-  <si>
     <t>Institución</t>
+  </si>
+  <si>
+    <t>${item.idTarifa} - ${item.descripcionTipoTarifa}</t>
+  </si>
+  <si>
+    <t>Escenario tarifa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,48 +342,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +413,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -507,23 +505,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -559,23 +540,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,16 +715,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
     <col min="6" max="8" width="28.5703125" customWidth="1"/>
     <col min="9" max="11" width="42.85546875" customWidth="1"/>
@@ -787,16 +751,16 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="3:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="14"/>
@@ -804,16 +768,16 @@
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="3:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -822,16 +786,16 @@
     </row>
     <row r="5" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -840,14 +804,14 @@
     </row>
     <row r="6" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -857,25 +821,25 @@
     <row r="7" spans="3:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>5</v>
@@ -923,27 +887,27 @@
     <row r="9" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="H9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="I9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="J9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="24" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="9"/>

--- a/boot/src/main/resources/xlsx/tarifarios/escenarioTarifa.xlsx
+++ b/boot/src/main/resources/xlsx/tarifarios/escenarioTarifa.xlsx
@@ -719,7 +719,7 @@
   <dimension ref="C1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D5" sqref="D5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
